--- a/topic_split/topic_13.xlsx
+++ b/topic_split/topic_13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>issue</t>
   </si>
@@ -22,50 +22,86 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[3.18211537e-308 2.58635125e-308 5.97504795e-308 2.52993107e-308
- 4.17926403e-308 5.84127713e-308 1.76618644e-307 1.15086825e-307
- 9.74927635e-308 5.36488876e-308 1.27136280e-307 7.03191578e-308
- 1.00000000e+000 3.54155703e-308 1.14989228e-307 5.70103270e-308
- 5.61085336e-308 9.53959167e-308 7.49001821e-308 7.54923799e-308
- 1.12097964e-307 7.27264373e-308 1.40127002e-307 6.14842071e-308
- 1.03444601e-307]</t>
-  </si>
-  <si>
-    <t>[3.09490161e-308 2.35572919e-308 6.83971363e-308 2.31607949e-308
- 4.65955266e-308 6.17109122e-308 1.24914335e-307 1.26474020e-307
- 1.09593174e-307 4.77289176e-308 1.30360650e-307 7.46725941e-308
- 1.00000000e+000 3.12597538e-308 1.04284831e-307 5.17743769e-308
- 5.52943972e-308 8.23158414e-308 6.82656199e-308 6.40882073e-308
- 1.53137110e-307 6.82950120e-308 2.37358804e-307 5.34996684e-308
- 9.56943878e-308]</t>
-  </si>
-  <si>
-    <t>[2.99165073e-308 2.47613304e-308 7.23008388e-308 2.42435044e-308
- 4.32369105e-308 5.58443873e-308 1.24231744e-307 1.04488968e-307
- 1.36697089e-307 5.04212634e-308 1.25388879e-307 8.71944452e-308
- 1.00000000e+000 3.32641760e-308 9.40439430e-308 5.44471835e-308
- 5.18918363e-308 7.78349503e-308 7.13727785e-308 6.84380488e-308
- 1.61561734e-307 6.70098517e-308 1.51815883e-307 5.62577344e-308
- 1.18994339e-307]</t>
-  </si>
-  <si>
-    <t>[3.11152545e-308 2.47551309e-308 6.28530691e-308 2.40229543e-308
- 4.34065193e-308 5.79674211e-308 1.55558559e-307 1.11818912e-307
- 1.21067983e-307 5.37579721e-308 1.47603484e-307 8.21225588e-308
- 1.00000000e+000 3.30944729e-308 1.06426368e-307 5.84524994e-308
- 5.47460056e-308 8.67882393e-308 7.74818260e-308 7.52215752e-308
- 1.19259374e-307 7.25594299e-308 1.22215085e-307 6.01974449e-308
- 1.19298663e-307]</t>
-  </si>
-  <si>
-    <t>[0.01165496 0.00991273 0.02541035 0.00958598 0.01604549 0.02069413
- 0.05082641 0.03589722 0.05153676 0.02135634 0.04948993 0.03538204
- 0.19968231 0.01334911 0.03477463 0.023102   0.01991805 0.02977183
- 0.03027053 0.02970976 0.0458917  0.02687256 0.04113648 0.02367811
- 0.05428906]</t>
+    <t>Integrate Playwright to enhance testing capabilities
+## Feature Request
+#### Overview
+The integration would provide Go developers with a straightforward way to conduct end-to-end testing within the context of Go.
+#### Use Case
+As a developer working on web applications, I often find the need for robust end-to-end testing solutions to ensure the reliability of the application. Integrating Playwright directly into Go would streamline the testing process, offering a convenient and efficient way to conduct these tests.
+#### Proposed Feature
+The proposed feature involves creating a set of functionalities that allow developers to easily set up and execute Playwright tests within Go. This could include:
+- [x] #1046
+- [x] #1047
+- [x] #1048
+- [ ] #1049
+- [x] #1050
+- [x] #1051
+#### Acceptance Criteria
+- Playwright is successfully integrated into the project.
+- An example test case is running successfully across all supported browsers.
+- Documentation is available and clear for developers to add and run tests.
+- CI pipeline runs Playwright tests as part of the build process.
+#### Expected Benefits
+The integration of Playwright into Go would offer the following benefits:
+1. Developers can easily set up and execute end-to-end tests without the need for complex configurations.
+2. Playwright's multi-browser support ensures that Go can be tested across various browsers.
+3. Comprehensive end-to-end testing contributes to improved code quality and reliability of Go.</t>
+  </si>
+  <si>
+    <t>Integrate Storybook for Component Development and Capturing UI Feedbacks
+### Feature Request
+To streamline and improve the development process of UI components within GO, we propose the integration of Storybook. Storybook is a powerful tool that allows developers to build and visualize UI components in isolation, facilitating efficient development, testing, and collaboration. This will also help us capture most of the visual feedback from the designers and separate UI issues in the web app or the components library.
+### Why Storybook?
+1. Isolation and Development Efficiency
+    Issue: Working on UI components within the context of the entire application can be time-consuming and cumbersome.
+    Solution: Storybook allows developers to isolate and work on individual UI components independently, leading to faster development cycles and more focused debugging.
+2. Visual Prototyping and Iteration
+Issue: Prototyping and iterating on UI designs can be challenging when closely tied to the application flow.
+Solution: Storybook provides a visual playground for rapid prototyping, enabling developers and designers to iterate on UI components efficiently and visualize different states and variations.
+3. Documentation and Component Showcase
+Issue: Documentation of UI components is often scattered or embedded within the codebase, making it challenging for team members to understand and utilize them.
+Solution: Storybook acts as a centralized platform for documenting and showcasing UI components, making it easier for team members to discover, understand, and use components consistently.
+4. Collaboration and Communication
+Issue: Communicating and collaborating on UI components can be challenging without a visual representation.
+Solution: Storybook fosters collaboration by providing an interactive environment where team members can visually assess, discuss, and align on UI component behavior and design.
+5. Testing and Debugging:
+Issue: Identifying and fixing issues within UI components can be time-consuming when testing in the context of the entire application.
+Solution: Storybook simplifies testing and debugging by allowing developers to focus on individual components in isolation, streamlining the troubleshooting process.
+### Proposal
+This feature will include the setup and configuration of Storybook within GO, the migration of existing components, and writing stories for each component.
+### Expected Benefits
+1. Develop and test UI components more efficiently by leveraging the isolation provided by Storybook.
+2. Enhance team collaboration through visual representation and discussion of UI components in Storybook.]
+3. Use Storybook as a central repository for documenting and showcasing UI components, ensuring consistent and up-to-date information.
+4. Improve prototyping and iteration of UI components by utilizing Storybook's visual environment.
+### Implementation Plan
+- [x] #661
+- [x] #660
+- [x] #583
+- [x] #659</t>
+  </si>
+  <si>
+    <t>Enhancement Proposal: Streamlining Build Process for `go-web-app` Monorepo
+### Current Situation
+Currently, our `go-web-app` monorepo's build process involves a cumbersome two-step manual execution. Initially, we build `go-ui` utilizing the Vite library mode, followed by the building of `go-web-app` itself using Vite. 
+Additionally, we lack the capability to automatically detect and incorporate changes in `go-ui`, necessitating manual intervention for each update.
+### Proposed Solution
+To address these challenges and enhance our development workflow, I propose leveraging advanced build tools tailored for monorepo environments. Specifically, we should explore the integration of `turborepo` and `nx`, which offer sophisticated features designed to optimize the build process and streamline development tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add TypeScript Type Check along with API Schema Validation
+To ensure the reliability and consistency of our codebase, we should add steps in our CI pipeline to perform TypeScript type checking for the frontend, validate the backend API schema, and generate/check TypeScript types from the OpenAPI schema using `openapi-typescript`. This will help catch type errors and schema inconsistencies early in the development process, improving code quality and reducing potential runtime errors.
+### Acceptance Criteria
+-  TypeScript type checking runs successfully as part of the CI pipeline.
+-  API schema validation runs successfully as part of the CI pipeline.
+-  TypeScript types are generated from the OpenAPI schema and type-checked as part of the CI pipeline.
+-  CI pipeline fails if any type errors or schema validation errors are detected.
+-  Documentation is updated to reflect the new type-checking and schema validation steps in the CI process.
+</t>
+  </si>
+  <si>
+    <t>Quaterly Dependency Update for GO Web App (April 2025)
+## Schedule 📅 Occurs every quarter (January, April, July, October) ### Tasks - [ ] Run `pnpm -r outdated` to list outdated dependencies. - [ ] Update **minor** and **patch** versions (`pnpm update`). - [ ] Review **major** version updates and plan migrations if needed. - [ ] Test the application (`pnpm test`) to catch regressions. - [ ] Verify the build and run manual checks for critical functionality. - [ ] Review and update documentation if necessary. - [ ] Commit updated `package.json` and `pnpm-lock.yaml`. ## Acceptance Criteria - No build or runtime errors. - All tests pass successfully. - No major regressions in functionality or performance. ## Notes - Major version upgrades should be addressed separately if required.</t>
   </si>
 </sst>
 </file>
@@ -423,76 +459,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>18</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>19</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>46</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>93</v>
       </c>
       <c r="B6">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
